--- a/Planilha de SAC.xlsx
+++ b/Planilha de SAC.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thamo\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thamo\OneDrive\Área de Trabalho\projetofaculdadegit\faculdade_impacta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="971" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="971"/>
   </bookViews>
   <sheets>
     <sheet name="Chamados" sheetId="3" r:id="rId1"/>
-    <sheet name="Média tempo" sheetId="17" r:id="rId2"/>
-    <sheet name="Status chamados" sheetId="10" r:id="rId3"/>
-    <sheet name="Chamados Respondidos por Tipo d" sheetId="16" r:id="rId4"/>
-    <sheet name="Chamados Respondidos x Abertos" sheetId="15" r:id="rId5"/>
-    <sheet name="Tempo atendimento por Atendente" sheetId="14" r:id="rId6"/>
-    <sheet name="Painel Principal" sheetId="13" r:id="rId7"/>
+    <sheet name="Média tempo" sheetId="17" state="hidden" r:id="rId2"/>
+    <sheet name="Status chamados" sheetId="10" state="hidden" r:id="rId3"/>
+    <sheet name="Chamados Respondidos por Tipo d" sheetId="16" state="hidden" r:id="rId4"/>
+    <sheet name="Chamados Respondidos x Abertos" sheetId="15" state="hidden" r:id="rId5"/>
+    <sheet name="Tempo atendimento por Atendente" sheetId="14" state="hidden" r:id="rId6"/>
+    <sheet name="Painel Principal" sheetId="13" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="primeiro">INDIRECT("Imagens!A" &amp; MATCH(#REF!,#REF!,0))</definedName>
@@ -1696,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1060"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -26309,7 +26309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
